--- a/team_specific_matrix/Navy_B.xlsx
+++ b/team_specific_matrix/Navy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.211864406779661</v>
+        <v>0.2132867132867133</v>
       </c>
       <c r="C2">
-        <v>0.5169491525423728</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008474576271186441</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1440677966101695</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1186440677966102</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C3">
-        <v>0.03125</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.015625</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7734375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.171875</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06122448979591837</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7346938775510204</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2040816326530612</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07103825136612021</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01092896174863388</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04371584699453552</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2295081967213115</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02185792349726776</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1748633879781421</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="R6">
-        <v>0.07650273224043716</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="S6">
-        <v>0.3715846994535519</v>
+        <v>0.3807339449541284</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1369047619047619</v>
+        <v>0.1398963730569948</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01785714285714286</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04761904761904762</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1547619047619048</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03571428571428571</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.125</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="R7">
-        <v>0.08928571428571429</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="S7">
-        <v>0.3928571428571428</v>
+        <v>0.3989637305699482</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1023391812865497</v>
+        <v>0.1035353535353535</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02631578947368421</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07017543859649122</v>
+        <v>0.07323232323232323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1257309941520468</v>
+        <v>0.1237373737373737</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02046783625730994</v>
+        <v>0.01767676767676768</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1461988304093567</v>
+        <v>0.154040404040404</v>
       </c>
       <c r="R8">
-        <v>0.1228070175438596</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="S8">
-        <v>0.3859649122807017</v>
+        <v>0.3838383838383838</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06611570247933884</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01652892561983471</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E9">
-        <v>0.008264462809917356</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="F9">
-        <v>0.0743801652892562</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09917355371900827</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01652892561983471</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1983471074380165</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="R9">
-        <v>0.0743801652892562</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="S9">
-        <v>0.4462809917355372</v>
+        <v>0.4326241134751773</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1054766734279919</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03346855983772819</v>
+        <v>0.02976190476190476</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09127789046653144</v>
+        <v>0.09098639455782313</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09939148073022312</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02941176470588235</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1683569979716024</v>
+        <v>0.1743197278911565</v>
       </c>
       <c r="R10">
-        <v>0.08316430020283976</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S10">
-        <v>0.3894523326572008</v>
+        <v>0.3784013605442177</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1505376344086022</v>
+        <v>0.1446945337620579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1003584229390681</v>
+        <v>0.0932475884244373</v>
       </c>
       <c r="K11">
-        <v>0.2186379928315412</v>
+        <v>0.2057877813504823</v>
       </c>
       <c r="L11">
-        <v>0.5197132616487455</v>
+        <v>0.5466237942122186</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01075268817204301</v>
+        <v>0.009646302250803859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7172413793103448</v>
+        <v>0.7100591715976331</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2068965517241379</v>
+        <v>0.2189349112426036</v>
       </c>
       <c r="K12">
-        <v>0.02758620689655172</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="L12">
-        <v>0.01379310344827586</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03550295857988166</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2051282051282051</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1282051282051282</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0108695652173913</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.108695652173913</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="I15">
-        <v>0.07608695652173914</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="J15">
-        <v>0.2826086956521739</v>
+        <v>0.2831050228310502</v>
       </c>
       <c r="K15">
-        <v>0.05978260869565218</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02173913043478261</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="N15">
-        <v>0.005434782608695652</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="O15">
-        <v>0.05434782608695652</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3804347826086957</v>
+        <v>0.3744292237442922</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01265822784810127</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1708860759493671</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="I16">
-        <v>0.06329113924050633</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="J16">
-        <v>0.3544303797468354</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K16">
-        <v>0.08860759493670886</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0189873417721519</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06329113924050633</v>
+        <v>0.0582010582010582</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2278481012658228</v>
+        <v>0.2116402116402116</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01724137931034483</v>
+        <v>0.01424501424501425</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1724137931034483</v>
+        <v>0.1680911680911681</v>
       </c>
       <c r="I17">
-        <v>0.06206896551724138</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="J17">
-        <v>0.4379310344827586</v>
+        <v>0.4472934472934473</v>
       </c>
       <c r="K17">
-        <v>0.07931034482758621</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02068965517241379</v>
+        <v>0.01994301994301994</v>
       </c>
       <c r="N17">
-        <v>0.003448275862068965</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="O17">
-        <v>0.03793103448275862</v>
+        <v>0.03988603988603989</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1689655172413793</v>
+        <v>0.1652421652421652</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01234567901234568</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="I18">
-        <v>0.04320987654320987</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="J18">
-        <v>0.4197530864197531</v>
+        <v>0.4064171122994653</v>
       </c>
       <c r="K18">
-        <v>0.08024691358024691</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006172839506172839</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04938271604938271</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1666666666666667</v>
+        <v>0.160427807486631</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01305970149253731</v>
+        <v>0.01370967741935484</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1986940298507463</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.06716417910447761</v>
+        <v>0.06290322580645161</v>
       </c>
       <c r="J19">
-        <v>0.3694029850746269</v>
+        <v>0.3774193548387097</v>
       </c>
       <c r="K19">
-        <v>0.1408582089552239</v>
+        <v>0.1346774193548387</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0251865671641791</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N19">
-        <v>0.0009328358208955224</v>
+        <v>0.001612903225806452</v>
       </c>
       <c r="O19">
-        <v>0.06902985074626866</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1156716417910448</v>
+        <v>0.1153225806451613</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Navy_B.xlsx
+++ b/team_specific_matrix/Navy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2132867132867133</v>
+        <v>0.2108626198083067</v>
       </c>
       <c r="C2">
-        <v>0.5174825174825175</v>
+        <v>0.5175718849840255</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01398601398601399</v>
+        <v>0.01277955271565495</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1398601398601399</v>
+        <v>0.1405750798722045</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1153846153846154</v>
+        <v>0.1182108626198083</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00641025641025641</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0.03205128205128205</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7692307692307693</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1647058823529412</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05454545454545454</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7454545454545455</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06880733944954129</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01376146788990826</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04587155963302753</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2201834862385321</v>
+        <v>0.2154471544715447</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01834862385321101</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1697247706422018</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="R6">
-        <v>0.08256880733944955</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="S6">
-        <v>0.3807339449541284</v>
+        <v>0.3739837398373984</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1398963730569948</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0155440414507772</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04663212435233161</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1450777202072539</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03626943005181347</v>
+        <v>0.03755868544600939</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1295336787564767</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="R7">
-        <v>0.08808290155440414</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="S7">
-        <v>0.3989637305699482</v>
+        <v>0.4037558685446009</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1035353535353535</v>
+        <v>0.1077981651376147</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02777777777777778</v>
+        <v>0.02981651376146789</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07323232323232323</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1237373737373737</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01767676767676768</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.154040404040404</v>
+        <v>0.1513761467889908</v>
       </c>
       <c r="R8">
-        <v>0.1161616161616162</v>
+        <v>0.1123853211009174</v>
       </c>
       <c r="S8">
-        <v>0.3838383838383838</v>
+        <v>0.3876146788990826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07801418439716312</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02127659574468085</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E9">
-        <v>0.007092198581560284</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="F9">
-        <v>0.07801418439716312</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1063829787234043</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02127659574468085</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1843971631205674</v>
+        <v>0.1796407185628743</v>
       </c>
       <c r="R9">
-        <v>0.07092198581560284</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="S9">
-        <v>0.4326241134751773</v>
+        <v>0.4131736526946108</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1071428571428571</v>
+        <v>0.1041347626339969</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02976190476190476</v>
+        <v>0.02909647779479326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09098639455782313</v>
+        <v>0.09264931087289434</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1071428571428571</v>
+        <v>0.108728943338438</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03061224489795918</v>
+        <v>0.03139356814701378</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1743197278911565</v>
+        <v>0.1753445635528331</v>
       </c>
       <c r="R10">
-        <v>0.08163265306122448</v>
+        <v>0.07963246554364471</v>
       </c>
       <c r="S10">
-        <v>0.3784013605442177</v>
+        <v>0.3790199081163859</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1446945337620579</v>
+        <v>0.1424418604651163</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0932475884244373</v>
+        <v>0.09593023255813954</v>
       </c>
       <c r="K11">
-        <v>0.2057877813504823</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="L11">
-        <v>0.5466237942122186</v>
+        <v>0.5494186046511628</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009646302250803859</v>
+        <v>0.008720930232558139</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7100591715976331</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2189349112426036</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.02366863905325444</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="L12">
-        <v>0.01183431952662722</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03550295857988166</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6739130434782609</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2173913043478261</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.108695652173913</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0136986301369863</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1095890410958904</v>
+        <v>0.1016260162601626</v>
       </c>
       <c r="I15">
-        <v>0.0776255707762557</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="J15">
-        <v>0.2831050228310502</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="K15">
-        <v>0.0547945205479452</v>
+        <v>0.05284552845528456</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0182648401826484</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="N15">
-        <v>0.0045662100456621</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="O15">
-        <v>0.0639269406392694</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3744292237442922</v>
+        <v>0.3739837398373984</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01058201058201058</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1534391534391534</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="I16">
-        <v>0.06878306878306878</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.3703703703703703</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="K16">
-        <v>0.1058201058201058</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02116402116402116</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0582010582010582</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2116402116402116</v>
+        <v>0.2095238095238095</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01424501424501425</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1680911680911681</v>
+        <v>0.1594936708860759</v>
       </c>
       <c r="I17">
-        <v>0.06837606837606838</v>
+        <v>0.0810126582278481</v>
       </c>
       <c r="J17">
-        <v>0.4472934472934473</v>
+        <v>0.4405063291139241</v>
       </c>
       <c r="K17">
-        <v>0.07407407407407407</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01994301994301994</v>
+        <v>0.02025316455696203</v>
       </c>
       <c r="N17">
-        <v>0.002849002849002849</v>
+        <v>0.002531645569620253</v>
       </c>
       <c r="O17">
-        <v>0.03988603988603989</v>
+        <v>0.04556962025316456</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1652421652421652</v>
+        <v>0.1620253164556962</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0160427807486631</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.213903743315508</v>
+        <v>0.2167487684729064</v>
       </c>
       <c r="I18">
-        <v>0.0481283422459893</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="J18">
-        <v>0.4064171122994653</v>
+        <v>0.3891625615763547</v>
       </c>
       <c r="K18">
-        <v>0.0855614973262032</v>
+        <v>0.08374384236453201</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0106951871657754</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05882352941176471</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.160427807486631</v>
+        <v>0.167487684729064</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01370967741935484</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.1998556998556998</v>
       </c>
       <c r="I19">
-        <v>0.06290322580645161</v>
+        <v>0.06277056277056277</v>
       </c>
       <c r="J19">
-        <v>0.3774193548387097</v>
+        <v>0.3751803751803752</v>
       </c>
       <c r="K19">
-        <v>0.1346774193548387</v>
+        <v>0.1334776334776335</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02580645161290323</v>
+        <v>0.02453102453102453</v>
       </c>
       <c r="N19">
-        <v>0.001612903225806452</v>
+        <v>0.001443001443001443</v>
       </c>
       <c r="O19">
-        <v>0.06854838709677419</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1153225806451613</v>
+        <v>0.1204906204906205</v>
       </c>
     </row>
   </sheetData>
